--- a/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
+++ b/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9918F0-BF21-4111-A37D-114FD5DAB967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-29 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
-  </si>
-  <si>
-    <t>1401-08-29 (5)</t>
+    <t>1401-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (6)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
     <t>1401-08-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +305,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -316,7 +317,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -363,6 +364,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,21 +584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -572,7 +607,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +618,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,7 +629,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,7 +638,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -614,7 +649,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,7 +660,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,7 +669,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -655,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -676,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -685,91 +720,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>3351396</v>
+        <v>3717425</v>
       </c>
       <c r="E11" s="13">
-        <v>3717425</v>
+        <v>4100298</v>
       </c>
       <c r="F11" s="13">
-        <v>4100298</v>
+        <v>4321632</v>
       </c>
       <c r="G11" s="13">
-        <v>4321632</v>
+        <v>6208072</v>
       </c>
       <c r="H11" s="13">
-        <v>6208072</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6643131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-2761908</v>
+        <v>-3226431</v>
       </c>
       <c r="E12" s="11">
-        <v>-3226431</v>
+        <v>-3191366</v>
       </c>
       <c r="F12" s="11">
-        <v>-3191366</v>
+        <v>-3844001</v>
       </c>
       <c r="G12" s="11">
-        <v>-3844001</v>
+        <v>-4264087</v>
       </c>
       <c r="H12" s="11">
-        <v>-4264087</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-5689438</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>589488</v>
+        <v>490994</v>
       </c>
       <c r="E13" s="15">
-        <v>490994</v>
+        <v>908932</v>
       </c>
       <c r="F13" s="15">
-        <v>908932</v>
+        <v>477631</v>
       </c>
       <c r="G13" s="15">
-        <v>477631</v>
+        <v>1943985</v>
       </c>
       <c r="H13" s="15">
-        <v>1943985</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>953693</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-275119</v>
+        <v>-260628</v>
       </c>
       <c r="E14" s="11">
-        <v>-260628</v>
+        <v>-361284</v>
       </c>
       <c r="F14" s="11">
-        <v>-361284</v>
+        <v>-257142</v>
       </c>
       <c r="G14" s="11">
-        <v>-257142</v>
+        <v>-418575</v>
       </c>
       <c r="H14" s="11">
-        <v>-418575</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-307273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -790,154 +825,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>139068</v>
+        <v>32159</v>
       </c>
       <c r="E16" s="11">
-        <v>32159</v>
+        <v>-30395</v>
       </c>
       <c r="F16" s="11">
-        <v>-30395</v>
+        <v>22552</v>
       </c>
       <c r="G16" s="11">
-        <v>22552</v>
+        <v>13358</v>
       </c>
       <c r="H16" s="11">
-        <v>13358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>268069</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>453437</v>
+        <v>262525</v>
       </c>
       <c r="E17" s="15">
-        <v>262525</v>
+        <v>517253</v>
       </c>
       <c r="F17" s="15">
-        <v>517253</v>
+        <v>243041</v>
       </c>
       <c r="G17" s="15">
-        <v>243041</v>
+        <v>1538768</v>
       </c>
       <c r="H17" s="15">
-        <v>1538768</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>914489</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-12414</v>
+        <v>-9758</v>
       </c>
       <c r="E18" s="11">
-        <v>-9758</v>
+        <v>-15500</v>
       </c>
       <c r="F18" s="11">
-        <v>-15500</v>
+        <v>-8688</v>
       </c>
       <c r="G18" s="11">
-        <v>-8688</v>
+        <v>-4941</v>
       </c>
       <c r="H18" s="11">
-        <v>-4941</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2013</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>9107</v>
+        <v>51117</v>
       </c>
       <c r="E19" s="13">
-        <v>51117</v>
+        <v>82560</v>
       </c>
       <c r="F19" s="13">
-        <v>82560</v>
+        <v>27175</v>
       </c>
       <c r="G19" s="13">
-        <v>27175</v>
+        <v>26724</v>
       </c>
       <c r="H19" s="13">
-        <v>26724</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73407</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>450130</v>
+        <v>303884</v>
       </c>
       <c r="E20" s="17">
-        <v>303884</v>
+        <v>584313</v>
       </c>
       <c r="F20" s="17">
-        <v>584313</v>
+        <v>261528</v>
       </c>
       <c r="G20" s="17">
-        <v>261528</v>
+        <v>1560551</v>
       </c>
       <c r="H20" s="17">
-        <v>1560551</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>985883</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-32534</v>
+        <v>-33938</v>
       </c>
       <c r="E21" s="13">
-        <v>-33938</v>
+        <v>-26414</v>
       </c>
       <c r="F21" s="13">
-        <v>-26414</v>
+        <v>-33294</v>
       </c>
       <c r="G21" s="13">
-        <v>-33294</v>
+        <v>-229585</v>
       </c>
       <c r="H21" s="13">
-        <v>-229585</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-109764</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>417596</v>
+        <v>269946</v>
       </c>
       <c r="E22" s="17">
-        <v>269946</v>
+        <v>557899</v>
       </c>
       <c r="F22" s="17">
-        <v>557899</v>
+        <v>228234</v>
       </c>
       <c r="G22" s="17">
-        <v>228234</v>
+        <v>1330966</v>
       </c>
       <c r="H22" s="17">
-        <v>1330966</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>876119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -958,49 +993,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>417596</v>
+        <v>269946</v>
       </c>
       <c r="E24" s="17">
-        <v>269946</v>
+        <v>557899</v>
       </c>
       <c r="F24" s="17">
-        <v>557899</v>
+        <v>228234</v>
       </c>
       <c r="G24" s="17">
-        <v>228234</v>
+        <v>1330966</v>
       </c>
       <c r="H24" s="17">
-        <v>1330966</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>876119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="E25" s="13">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="F25" s="13">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="G25" s="13">
-        <v>125</v>
+        <v>729</v>
       </c>
       <c r="H25" s="13">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
@@ -1021,28 +1056,28 @@
         <v>1826000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="E27" s="13">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="F27" s="13">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="G27" s="13">
-        <v>125</v>
+        <v>729</v>
       </c>
       <c r="H27" s="13">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
+++ b/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9918F0-BF21-4111-A37D-114FD5DAB967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7538C-0997-421F-8B58-711293340B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1401-03-11 (8)</t>
+  </si>
+  <si>
+    <t>1401-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-08-29 (4)</t>
   </si>
   <si>
     <t>1401-10-28 (2)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1494758</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2544539</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3379358</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2522162</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3351396</v>
+      </c>
+      <c r="I11" s="13">
         <v>3717425</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>4100298</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>4321632</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>6208072</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>6643131</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1493482</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-2249275</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-2557136</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-2139565</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-2761908</v>
+      </c>
+      <c r="I12" s="11">
         <v>-3226431</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-3191366</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-3844001</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-4264087</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-5689438</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>1276</v>
+      </c>
+      <c r="E13" s="15">
+        <v>295264</v>
+      </c>
+      <c r="F13" s="15">
+        <v>822222</v>
+      </c>
+      <c r="G13" s="15">
+        <v>382597</v>
+      </c>
+      <c r="H13" s="15">
+        <v>589488</v>
+      </c>
+      <c r="I13" s="15">
         <v>490994</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>908932</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>477631</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>1943985</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>953693</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-93248</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-240765</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-372392</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-196255</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-275119</v>
+      </c>
+      <c r="I14" s="11">
         <v>-260628</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-361284</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-257142</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-418575</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-307273</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>273828</v>
+      </c>
+      <c r="E16" s="11">
+        <v>92009</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-46760</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-136295</v>
+      </c>
+      <c r="H16" s="11">
+        <v>139068</v>
+      </c>
+      <c r="I16" s="11">
         <v>32159</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-30395</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>22552</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>13358</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>268069</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>181856</v>
+      </c>
+      <c r="E17" s="15">
+        <v>146508</v>
+      </c>
+      <c r="F17" s="15">
+        <v>403070</v>
+      </c>
+      <c r="G17" s="15">
+        <v>50047</v>
+      </c>
+      <c r="H17" s="15">
+        <v>453437</v>
+      </c>
+      <c r="I17" s="15">
         <v>262525</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>517253</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>243041</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>1538768</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>914489</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-5402</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-3118</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-634</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-10530</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-12414</v>
+      </c>
+      <c r="I18" s="11">
         <v>-9758</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-15500</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-8688</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-4941</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-2013</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>31445</v>
+      </c>
+      <c r="E19" s="13">
+        <v>32646</v>
+      </c>
+      <c r="F19" s="13">
+        <v>39936</v>
+      </c>
+      <c r="G19" s="13">
+        <v>72750</v>
+      </c>
+      <c r="H19" s="13">
+        <v>9107</v>
+      </c>
+      <c r="I19" s="13">
         <v>51117</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>82560</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>27175</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>26724</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>73407</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>207899</v>
+      </c>
+      <c r="E20" s="17">
+        <v>176036</v>
+      </c>
+      <c r="F20" s="17">
+        <v>442372</v>
+      </c>
+      <c r="G20" s="17">
+        <v>112267</v>
+      </c>
+      <c r="H20" s="17">
+        <v>450130</v>
+      </c>
+      <c r="I20" s="17">
         <v>303884</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>584313</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>261528</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>1560551</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>985883</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-5083</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-32534</v>
+      </c>
+      <c r="I21" s="13">
         <v>-33938</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-26414</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-33294</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-229585</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-109764</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>207899</v>
+      </c>
+      <c r="E22" s="17">
+        <v>176036</v>
+      </c>
+      <c r="F22" s="17">
+        <v>437289</v>
+      </c>
+      <c r="G22" s="17">
+        <v>112267</v>
+      </c>
+      <c r="H22" s="17">
+        <v>417596</v>
+      </c>
+      <c r="I22" s="17">
         <v>269946</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>557899</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>228234</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>1330966</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>876119</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,59 +1274,104 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>207899</v>
+      </c>
+      <c r="E24" s="17">
+        <v>176036</v>
+      </c>
+      <c r="F24" s="17">
+        <v>437289</v>
+      </c>
+      <c r="G24" s="17">
+        <v>112267</v>
+      </c>
+      <c r="H24" s="17">
+        <v>417596</v>
+      </c>
+      <c r="I24" s="17">
         <v>269946</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>557899</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>228234</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>1330966</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>876119</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>369</v>
+      </c>
+      <c r="E25" s="13">
+        <v>313</v>
+      </c>
+      <c r="F25" s="13">
+        <v>239</v>
+      </c>
+      <c r="G25" s="13">
+        <v>61</v>
+      </c>
+      <c r="H25" s="13">
+        <v>229</v>
+      </c>
+      <c r="I25" s="13">
         <v>148</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>306</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>125</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>729</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="E26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="F26" s="11">
         <v>1826000</v>
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>1826000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1826000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>114</v>
+      </c>
+      <c r="E27" s="13">
+        <v>96</v>
+      </c>
+      <c r="F27" s="13">
+        <v>239</v>
+      </c>
+      <c r="G27" s="13">
+        <v>61</v>
+      </c>
+      <c r="H27" s="13">
+        <v>229</v>
+      </c>
+      <c r="I27" s="13">
         <v>148</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>306</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>125</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>729</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
+++ b/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7538C-0997-421F-8B58-711293340B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4F6BC-1A33-4C9C-854B-32C883B37610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-29 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-30 (7)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1494758</v>
+        <v>2544539</v>
       </c>
       <c r="E11" s="13">
-        <v>2544539</v>
+        <v>3379358</v>
       </c>
       <c r="F11" s="13">
-        <v>3379358</v>
+        <v>2522162</v>
       </c>
       <c r="G11" s="13">
-        <v>2522162</v>
+        <v>3351396</v>
       </c>
       <c r="H11" s="13">
-        <v>3351396</v>
+        <v>3717425</v>
       </c>
       <c r="I11" s="13">
-        <v>3717425</v>
+        <v>4100298</v>
       </c>
       <c r="J11" s="13">
-        <v>4100298</v>
+        <v>4321632</v>
       </c>
       <c r="K11" s="13">
-        <v>4321632</v>
+        <v>6208072</v>
       </c>
       <c r="L11" s="13">
-        <v>6208072</v>
+        <v>6643131</v>
       </c>
       <c r="M11" s="13">
-        <v>6643131</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7473106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1493482</v>
+        <v>-2249275</v>
       </c>
       <c r="E12" s="11">
-        <v>-2249275</v>
+        <v>-2557136</v>
       </c>
       <c r="F12" s="11">
-        <v>-2557136</v>
+        <v>-2139565</v>
       </c>
       <c r="G12" s="11">
-        <v>-2139565</v>
+        <v>-2761908</v>
       </c>
       <c r="H12" s="11">
-        <v>-2761908</v>
+        <v>-3226431</v>
       </c>
       <c r="I12" s="11">
-        <v>-3226431</v>
+        <v>-3191366</v>
       </c>
       <c r="J12" s="11">
-        <v>-3191366</v>
+        <v>-3844001</v>
       </c>
       <c r="K12" s="11">
-        <v>-3844001</v>
+        <v>-4264087</v>
       </c>
       <c r="L12" s="11">
-        <v>-4264087</v>
+        <v>-5689438</v>
       </c>
       <c r="M12" s="11">
-        <v>-5689438</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5987649</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1276</v>
+        <v>295264</v>
       </c>
       <c r="E13" s="15">
-        <v>295264</v>
+        <v>822222</v>
       </c>
       <c r="F13" s="15">
-        <v>822222</v>
+        <v>382597</v>
       </c>
       <c r="G13" s="15">
-        <v>382597</v>
+        <v>589488</v>
       </c>
       <c r="H13" s="15">
-        <v>589488</v>
+        <v>490994</v>
       </c>
       <c r="I13" s="15">
-        <v>490994</v>
+        <v>908932</v>
       </c>
       <c r="J13" s="15">
-        <v>908932</v>
+        <v>477631</v>
       </c>
       <c r="K13" s="15">
-        <v>477631</v>
+        <v>1943985</v>
       </c>
       <c r="L13" s="15">
-        <v>1943985</v>
+        <v>953693</v>
       </c>
       <c r="M13" s="15">
-        <v>953693</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1485457</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-93248</v>
+        <v>-240765</v>
       </c>
       <c r="E14" s="11">
-        <v>-240765</v>
+        <v>-372392</v>
       </c>
       <c r="F14" s="11">
-        <v>-372392</v>
+        <v>-196255</v>
       </c>
       <c r="G14" s="11">
-        <v>-196255</v>
+        <v>-275119</v>
       </c>
       <c r="H14" s="11">
-        <v>-275119</v>
+        <v>-260628</v>
       </c>
       <c r="I14" s="11">
-        <v>-260628</v>
+        <v>-361284</v>
       </c>
       <c r="J14" s="11">
-        <v>-361284</v>
+        <v>-257142</v>
       </c>
       <c r="K14" s="11">
-        <v>-257142</v>
+        <v>-418575</v>
       </c>
       <c r="L14" s="11">
-        <v>-418575</v>
+        <v>-307273</v>
       </c>
       <c r="M14" s="11">
-        <v>-307273</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-376825</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,187 +1003,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>273828</v>
+        <v>92009</v>
       </c>
       <c r="E16" s="11">
-        <v>92009</v>
+        <v>-46760</v>
       </c>
       <c r="F16" s="11">
-        <v>-46760</v>
+        <v>-136295</v>
       </c>
       <c r="G16" s="11">
-        <v>-136295</v>
+        <v>139068</v>
       </c>
       <c r="H16" s="11">
-        <v>139068</v>
+        <v>32159</v>
       </c>
       <c r="I16" s="11">
-        <v>32159</v>
+        <v>-30395</v>
       </c>
       <c r="J16" s="11">
-        <v>-30395</v>
+        <v>22552</v>
       </c>
       <c r="K16" s="11">
-        <v>22552</v>
+        <v>13358</v>
       </c>
       <c r="L16" s="11">
-        <v>13358</v>
+        <v>268069</v>
       </c>
       <c r="M16" s="11">
-        <v>268069</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>579141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>181856</v>
+        <v>146508</v>
       </c>
       <c r="E17" s="15">
-        <v>146508</v>
+        <v>403070</v>
       </c>
       <c r="F17" s="15">
-        <v>403070</v>
+        <v>50047</v>
       </c>
       <c r="G17" s="15">
-        <v>50047</v>
+        <v>453437</v>
       </c>
       <c r="H17" s="15">
-        <v>453437</v>
+        <v>262525</v>
       </c>
       <c r="I17" s="15">
-        <v>262525</v>
+        <v>517253</v>
       </c>
       <c r="J17" s="15">
-        <v>517253</v>
+        <v>243041</v>
       </c>
       <c r="K17" s="15">
-        <v>243041</v>
+        <v>1538768</v>
       </c>
       <c r="L17" s="15">
-        <v>1538768</v>
+        <v>914489</v>
       </c>
       <c r="M17" s="15">
-        <v>914489</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1687773</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-5402</v>
+        <v>-3118</v>
       </c>
       <c r="E18" s="11">
-        <v>-3118</v>
+        <v>-634</v>
       </c>
       <c r="F18" s="11">
-        <v>-634</v>
+        <v>-10530</v>
       </c>
       <c r="G18" s="11">
-        <v>-10530</v>
+        <v>-12414</v>
       </c>
       <c r="H18" s="11">
-        <v>-12414</v>
+        <v>-9758</v>
       </c>
       <c r="I18" s="11">
-        <v>-9758</v>
+        <v>-15500</v>
       </c>
       <c r="J18" s="11">
-        <v>-15500</v>
+        <v>-8688</v>
       </c>
       <c r="K18" s="11">
-        <v>-8688</v>
+        <v>-4941</v>
       </c>
       <c r="L18" s="11">
-        <v>-4941</v>
+        <v>-2013</v>
       </c>
       <c r="M18" s="11">
-        <v>-2013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>31445</v>
+        <v>32646</v>
       </c>
       <c r="E19" s="13">
-        <v>32646</v>
+        <v>39936</v>
       </c>
       <c r="F19" s="13">
-        <v>39936</v>
+        <v>72750</v>
       </c>
       <c r="G19" s="13">
-        <v>72750</v>
+        <v>9107</v>
       </c>
       <c r="H19" s="13">
-        <v>9107</v>
+        <v>51117</v>
       </c>
       <c r="I19" s="13">
-        <v>51117</v>
+        <v>82560</v>
       </c>
       <c r="J19" s="13">
-        <v>82560</v>
+        <v>27175</v>
       </c>
       <c r="K19" s="13">
-        <v>27175</v>
+        <v>26724</v>
       </c>
       <c r="L19" s="13">
-        <v>26724</v>
+        <v>73407</v>
       </c>
       <c r="M19" s="13">
-        <v>73407</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13774</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>207899</v>
+        <v>176036</v>
       </c>
       <c r="E20" s="17">
-        <v>176036</v>
+        <v>442372</v>
       </c>
       <c r="F20" s="17">
-        <v>442372</v>
+        <v>112267</v>
       </c>
       <c r="G20" s="17">
-        <v>112267</v>
+        <v>450130</v>
       </c>
       <c r="H20" s="17">
-        <v>450130</v>
+        <v>303884</v>
       </c>
       <c r="I20" s="17">
-        <v>303884</v>
+        <v>584313</v>
       </c>
       <c r="J20" s="17">
-        <v>584313</v>
+        <v>261528</v>
       </c>
       <c r="K20" s="17">
-        <v>261528</v>
+        <v>1560551</v>
       </c>
       <c r="L20" s="17">
-        <v>1560551</v>
+        <v>985883</v>
       </c>
       <c r="M20" s="17">
-        <v>985883</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1701548</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1191,70 +1192,70 @@
         <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>-5083</v>
       </c>
       <c r="F21" s="13">
-        <v>-5083</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>-32534</v>
       </c>
       <c r="H21" s="13">
-        <v>-32534</v>
+        <v>-33938</v>
       </c>
       <c r="I21" s="13">
-        <v>-33938</v>
+        <v>-26414</v>
       </c>
       <c r="J21" s="13">
-        <v>-26414</v>
+        <v>-33294</v>
       </c>
       <c r="K21" s="13">
-        <v>-33294</v>
+        <v>-229585</v>
       </c>
       <c r="L21" s="13">
-        <v>-229585</v>
+        <v>-109764</v>
       </c>
       <c r="M21" s="13">
-        <v>-109764</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-138227</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>207899</v>
+        <v>176036</v>
       </c>
       <c r="E22" s="17">
-        <v>176036</v>
+        <v>437289</v>
       </c>
       <c r="F22" s="17">
-        <v>437289</v>
+        <v>112267</v>
       </c>
       <c r="G22" s="17">
-        <v>112267</v>
+        <v>417596</v>
       </c>
       <c r="H22" s="17">
-        <v>417596</v>
+        <v>269946</v>
       </c>
       <c r="I22" s="17">
-        <v>269946</v>
+        <v>557899</v>
       </c>
       <c r="J22" s="17">
-        <v>557899</v>
+        <v>228234</v>
       </c>
       <c r="K22" s="17">
-        <v>228234</v>
+        <v>1330966</v>
       </c>
       <c r="L22" s="17">
-        <v>1330966</v>
+        <v>876119</v>
       </c>
       <c r="M22" s="17">
-        <v>876119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1563321</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>207899</v>
+        <v>176036</v>
       </c>
       <c r="E24" s="17">
-        <v>176036</v>
+        <v>437289</v>
       </c>
       <c r="F24" s="17">
-        <v>437289</v>
+        <v>112267</v>
       </c>
       <c r="G24" s="17">
-        <v>112267</v>
+        <v>417596</v>
       </c>
       <c r="H24" s="17">
-        <v>417596</v>
+        <v>269946</v>
       </c>
       <c r="I24" s="17">
-        <v>269946</v>
+        <v>557899</v>
       </c>
       <c r="J24" s="17">
-        <v>557899</v>
+        <v>228234</v>
       </c>
       <c r="K24" s="17">
-        <v>228234</v>
+        <v>1330966</v>
       </c>
       <c r="L24" s="17">
-        <v>1330966</v>
+        <v>876119</v>
       </c>
       <c r="M24" s="17">
-        <v>876119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1563321</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="E25" s="13">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="F25" s="13">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="G25" s="13">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="H25" s="13">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="I25" s="13">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="J25" s="13">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="K25" s="13">
-        <v>125</v>
+        <v>729</v>
       </c>
       <c r="L25" s="13">
-        <v>729</v>
+        <v>480</v>
       </c>
       <c r="M25" s="13">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>563000</v>
       </c>
       <c r="E26" s="11">
-        <v>563000</v>
+        <v>1826000</v>
       </c>
       <c r="F26" s="11">
         <v>1826000</v>
@@ -1398,43 +1399,43 @@
         <v>1826000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E27" s="13">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="F27" s="13">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="G27" s="13">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="H27" s="13">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="I27" s="13">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="J27" s="13">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="K27" s="13">
-        <v>125</v>
+        <v>729</v>
       </c>
       <c r="L27" s="13">
-        <v>729</v>
+        <v>480</v>
       </c>
       <c r="M27" s="13">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
+++ b/database/industries/khodro/khetrak/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\khodro\khetrak\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4F6BC-1A33-4C9C-854B-32C883B37610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ABEDF2-AC07-4EB4-A2D3-2A0EA554D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="4530" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>ختراک-ریخته‌گری‌ تراکتورسازی‌ ایران‌</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-03-07 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-28 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1400-02-28 (9)</t>
+  </si>
+  <si>
+    <t>1400-04-27 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
     <t>1400-10-29 (3)</t>
   </si>
   <si>
@@ -85,19 +139,25 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1402-02-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-04-29</t>
-  </si>
-  <si>
-    <t>1401-08-29 (2)</t>
+    <t>1402-03-10 (8)</t>
+  </si>
+  <si>
+    <t>1402-04-28 (2)</t>
+  </si>
+  <si>
+    <t>1402-08-30 (4)</t>
   </si>
   <si>
     <t>1401-10-28</t>
   </si>
   <si>
-    <t>1402-02-30</t>
+    <t>1402-08-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-28</t>
+  </si>
+  <si>
+    <t>1402-08-30 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -121,13 +181,13 @@
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -629,9 +689,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>602294</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1044568</v>
+      </c>
+      <c r="F11" s="13">
+        <v>794053</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1158548</v>
+      </c>
+      <c r="H11" s="13">
+        <v>964349</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1114316</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1049881</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1494758</v>
+      </c>
+      <c r="L11" s="13">
         <v>2544539</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>3379358</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>2522162</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>3351396</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>3717425</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>4100298</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>4321632</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>6208072</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>6643131</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>7473106</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>7647245</v>
+      </c>
+      <c r="W11" s="13">
+        <v>9004354</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-570299</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1021507</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-834436</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-838023</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-895907</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-1027174</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-1013712</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-1493482</v>
+      </c>
+      <c r="L12" s="11">
         <v>-2249275</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-2557136</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-2139565</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-2761908</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-3226431</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-3191366</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-3844001</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-4264087</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-5689438</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-5987649</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-6744381</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-7465507</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>31995</v>
+      </c>
+      <c r="E13" s="15">
+        <v>18850</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-40383</v>
+      </c>
+      <c r="G13" s="15">
+        <v>320525</v>
+      </c>
+      <c r="H13" s="15">
+        <v>68442</v>
+      </c>
+      <c r="I13" s="15">
+        <v>87142</v>
+      </c>
+      <c r="J13" s="15">
+        <v>36169</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1276</v>
+      </c>
+      <c r="L13" s="15">
         <v>295264</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>822222</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>382597</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>589488</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>490994</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>908932</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>477631</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>1943985</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>953693</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>1485457</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>902864</v>
+      </c>
+      <c r="W13" s="15">
+        <v>1538847</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-39618</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-130529</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-76197</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-158394</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-70554</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-49038</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-85545</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-93248</v>
+      </c>
+      <c r="L14" s="11">
         <v>-240765</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-372392</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-196255</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-275119</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-260628</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-361284</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-257142</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-418575</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-307273</v>
       </c>
-      <c r="M14" s="11">
-        <v>-376825</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-376681</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-459444</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-474887</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1002,262 +1327,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>93603</v>
+      </c>
+      <c r="E16" s="11">
+        <v>174703</v>
+      </c>
+      <c r="F16" s="11">
+        <v>138646</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-3164</v>
+      </c>
+      <c r="H16" s="11">
+        <v>39857</v>
+      </c>
+      <c r="I16" s="11">
+        <v>66071</v>
+      </c>
+      <c r="J16" s="11">
+        <v>92369</v>
+      </c>
+      <c r="K16" s="11">
+        <v>273828</v>
+      </c>
+      <c r="L16" s="11">
         <v>92009</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>-46760</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-136295</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>139068</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>32159</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>-30395</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>22552</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>13358</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>268069</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>579141</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>113573</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-45297</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>85980</v>
+      </c>
+      <c r="E17" s="15">
+        <v>-95105</v>
+      </c>
+      <c r="F17" s="15">
+        <v>22066</v>
+      </c>
+      <c r="G17" s="15">
+        <v>158967</v>
+      </c>
+      <c r="H17" s="15">
+        <v>37745</v>
+      </c>
+      <c r="I17" s="15">
+        <v>104175</v>
+      </c>
+      <c r="J17" s="15">
+        <v>42993</v>
+      </c>
+      <c r="K17" s="15">
+        <v>181856</v>
+      </c>
+      <c r="L17" s="15">
         <v>146508</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>403070</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>50047</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>453437</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>262525</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>517253</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>243041</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>1538768</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>914489</v>
       </c>
-      <c r="M17" s="15">
-        <v>1687773</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>1687917</v>
+      </c>
+      <c r="V17" s="15">
+        <v>556993</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1018663</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-354</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-529</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-4400</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-8139</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-5402</v>
+      </c>
+      <c r="L18" s="11">
         <v>-3118</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-634</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-10530</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-12414</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-9758</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-15500</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-8688</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-4941</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-2013</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-17500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>2027</v>
+      </c>
+      <c r="E19" s="13">
+        <v>7949</v>
+      </c>
+      <c r="F19" s="13">
+        <v>5782</v>
+      </c>
+      <c r="G19" s="13">
+        <v>815</v>
+      </c>
+      <c r="H19" s="13">
+        <v>10599</v>
+      </c>
+      <c r="I19" s="13">
+        <v>6341</v>
+      </c>
+      <c r="J19" s="13">
+        <v>44947</v>
+      </c>
+      <c r="K19" s="13">
+        <v>31445</v>
+      </c>
+      <c r="L19" s="13">
         <v>32646</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>39936</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>72750</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>9107</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>51117</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>82560</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>27175</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>26724</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>73407</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>13774</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>232631</v>
+      </c>
+      <c r="W19" s="13">
+        <v>-19673</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>87653</v>
+      </c>
+      <c r="E20" s="17">
+        <v>-95024</v>
+      </c>
+      <c r="F20" s="17">
+        <v>27848</v>
+      </c>
+      <c r="G20" s="17">
+        <v>159782</v>
+      </c>
+      <c r="H20" s="17">
+        <v>48344</v>
+      </c>
+      <c r="I20" s="17">
+        <v>106116</v>
+      </c>
+      <c r="J20" s="17">
+        <v>79801</v>
+      </c>
+      <c r="K20" s="17">
+        <v>207899</v>
+      </c>
+      <c r="L20" s="17">
         <v>176036</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>442372</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>112267</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>450130</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>303884</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>584313</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>261528</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>1560551</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>985883</v>
       </c>
-      <c r="M20" s="17">
-        <v>1701548</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>1701692</v>
+      </c>
+      <c r="V20" s="17">
+        <v>789624</v>
+      </c>
+      <c r="W20" s="17">
+        <v>981490</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
         <v>0</v>
       </c>
       <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
         <v>-5083</v>
       </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
         <v>-32534</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-33938</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-26414</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-33294</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-229585</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-109764</v>
       </c>
-      <c r="M21" s="13">
-        <v>-138227</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>-138243</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-84164</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-188082</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>87653</v>
+      </c>
+      <c r="E22" s="17">
+        <v>-95024</v>
+      </c>
+      <c r="F22" s="17">
+        <v>27848</v>
+      </c>
+      <c r="G22" s="17">
+        <v>159782</v>
+      </c>
+      <c r="H22" s="17">
+        <v>48344</v>
+      </c>
+      <c r="I22" s="17">
+        <v>106116</v>
+      </c>
+      <c r="J22" s="17">
+        <v>79801</v>
+      </c>
+      <c r="K22" s="17">
+        <v>207899</v>
+      </c>
+      <c r="L22" s="17">
         <v>176036</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>437289</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>112267</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>417596</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>269946</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>557899</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>228234</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>1330966</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>876119</v>
       </c>
-      <c r="M22" s="17">
-        <v>1563321</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>1563449</v>
+      </c>
+      <c r="V22" s="17">
+        <v>705460</v>
+      </c>
+      <c r="W22" s="17">
+        <v>793408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,152 +1855,302 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>87653</v>
+      </c>
+      <c r="E24" s="17">
+        <v>-95024</v>
+      </c>
+      <c r="F24" s="17">
+        <v>27848</v>
+      </c>
+      <c r="G24" s="17">
+        <v>159782</v>
+      </c>
+      <c r="H24" s="17">
+        <v>48344</v>
+      </c>
+      <c r="I24" s="17">
+        <v>106116</v>
+      </c>
+      <c r="J24" s="17">
+        <v>79801</v>
+      </c>
+      <c r="K24" s="17">
+        <v>207899</v>
+      </c>
+      <c r="L24" s="17">
         <v>176036</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>437289</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>112267</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>417596</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>269946</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>557899</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>228234</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>1330966</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>876119</v>
       </c>
-      <c r="M24" s="17">
-        <v>1563321</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>1563449</v>
+      </c>
+      <c r="V24" s="17">
+        <v>705460</v>
+      </c>
+      <c r="W24" s="17">
+        <v>793408</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>412</v>
+      </c>
+      <c r="E25" s="13">
+        <v>-446</v>
+      </c>
+      <c r="F25" s="13">
+        <v>131</v>
+      </c>
+      <c r="G25" s="13">
+        <v>284</v>
+      </c>
+      <c r="H25" s="13">
+        <v>86</v>
+      </c>
+      <c r="I25" s="13">
+        <v>188</v>
+      </c>
+      <c r="J25" s="13">
+        <v>142</v>
+      </c>
+      <c r="K25" s="13">
+        <v>369</v>
+      </c>
+      <c r="L25" s="13">
         <v>313</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>239</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>61</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>229</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>148</v>
       </c>
-      <c r="I25" s="13">
+      <c r="Q25" s="13">
         <v>306</v>
       </c>
-      <c r="J25" s="13">
+      <c r="R25" s="13">
         <v>125</v>
       </c>
-      <c r="K25" s="13">
+      <c r="S25" s="13">
         <v>729</v>
       </c>
-      <c r="L25" s="13">
+      <c r="T25" s="13">
         <v>480</v>
       </c>
-      <c r="M25" s="13">
+      <c r="U25" s="13">
         <v>856</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="13">
+        <v>386</v>
+      </c>
+      <c r="W25" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>213000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>213000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>213000</v>
+      </c>
+      <c r="G26" s="11">
         <v>563000</v>
       </c>
-      <c r="E26" s="11">
-        <v>1826000</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1826000</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1826000</v>
-      </c>
       <c r="H26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="I26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="J26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="K26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="L26" s="11">
-        <v>1826000</v>
+        <v>563000</v>
       </c>
       <c r="M26" s="11">
         <v>1826000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="P26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="R26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>1826000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>6330000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E27" s="13">
-        <v>239</v>
+        <v>-15</v>
       </c>
       <c r="F27" s="13">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G27" s="13">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H27" s="13">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="I27" s="13">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="J27" s="13">
+        <v>13</v>
+      </c>
+      <c r="K27" s="13">
+        <v>33</v>
+      </c>
+      <c r="L27" s="13">
+        <v>28</v>
+      </c>
+      <c r="M27" s="13">
+        <v>69</v>
+      </c>
+      <c r="N27" s="13">
+        <v>18</v>
+      </c>
+      <c r="O27" s="13">
+        <v>66</v>
+      </c>
+      <c r="P27" s="13">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>88</v>
+      </c>
+      <c r="R27" s="13">
+        <v>36</v>
+      </c>
+      <c r="S27" s="13">
+        <v>210</v>
+      </c>
+      <c r="T27" s="13">
+        <v>138</v>
+      </c>
+      <c r="U27" s="13">
+        <v>247</v>
+      </c>
+      <c r="V27" s="13">
+        <v>111</v>
+      </c>
+      <c r="W27" s="13">
         <v>125</v>
       </c>
-      <c r="K27" s="13">
-        <v>729</v>
-      </c>
-      <c r="L27" s="13">
-        <v>480</v>
-      </c>
-      <c r="M27" s="13">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
